--- a/chateauCarte.xlsx
+++ b/chateauCarte.xlsx
@@ -11,6 +11,7 @@
     <sheet name="template" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">template!$A$1:$N$25</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">template!$A$1:$N$25</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -41,7 +42,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -63,7 +63,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -261,21 +260,22 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.83400809716599"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.85425101214575"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="2.83400809716599"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.85425101214575"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="2.83400809716599"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.98380566801619"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.9554655870445"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="5.24291497975709"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="12.9554655870445"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="2.98380566801619"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="12.9554655870445"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="5.24291497975709"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="12.9554655870445"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="2.98380566801619"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.04858299595142"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
